--- a/Pomiary_Dispatcher/Data/Config.xlsx
+++ b/Pomiary_Dispatcher/Data/Config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -161,13 +161,7 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>przewodnosc</t>
-  </si>
-  <si>
-    <t>tlen</t>
+    <t>dispItems</t>
   </si>
 </sst>
 </file>
@@ -2771,22 +2765,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>
